--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -192,6 +187,18 @@
   </si>
   <si>
     <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -543,74 +550,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -630,7 +569,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -954,7 +893,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,9 +1136,15 @@
       <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42443</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1281,9 +1226,15 @@
       <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42443</v>
+      </c>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +905,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,7 +1242,7 @@
         <v>49</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7" s="13">
         <v>42443</v>
@@ -1274,9 +1286,15 @@
       <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42444</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1316,9 +1334,15 @@
       <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
+      <c r="L9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42444</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -199,6 +204,14 @@
   </si>
   <si>
     <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测，测试环境没有发送短信的功能被屏蔽，无法验证该功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -550,6 +563,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -569,7 +650,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -892,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,14 +1091,24 @@
       <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42440</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -203,15 +198,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>自测，测试环境没有发送短信的功能被屏蔽，无法验证该功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>余星赞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自测，测试环境没有发送短信的功能被屏蔽，无法验证该功能</t>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,74 +569,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,7 +588,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -974,7 +912,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,13 +1039,13 @@
         <v>42440</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32"/>
       <c r="S2" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T2" s="10"/>
     </row>
@@ -1236,7 +1174,9 @@
       <c r="N5" s="13">
         <v>42443</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="33"/>
@@ -1318,7 +1258,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>48</v>
@@ -1326,7 +1266,9 @@
       <c r="N7" s="13">
         <v>42443</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="34"/>
@@ -1365,10 +1307,18 @@
       <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="34"/>
@@ -1407,10 +1357,18 @@
       <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="34"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -215,6 +220,14 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
@@ -569,6 +582,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,7 +669,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -912,7 +993,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1081,10 +1162,18 @@
       <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42440</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="33"/>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -231,6 +231,22 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单生成还有问题，需与产品沟通后修改算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,74 +598,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -669,7 +617,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -992,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1072,9 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="32"/>
+      <c r="R2" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S2" s="18" t="s">
         <v>49</v>
       </c>
@@ -1176,7 +1126,9 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="33"/>
+      <c r="R3" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -1268,7 +1220,9 @@
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="33"/>
+      <c r="R5" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
@@ -1304,14 +1258,26 @@
       <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1360,7 +1326,9 @@
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1410,7 +1378,9 @@
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="34"/>
+      <c r="R8" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
@@ -1460,7 +1430,9 @@
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="34"/>
+      <c r="R9" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>

--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_闪电组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -365,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -453,15 +453,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -480,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +569,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1164,13 +1152,23 @@
       <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42444</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="33"/>
+      <c r="R4" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1454,7 +1452,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="34"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1476,7 +1474,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1498,7 +1496,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="34"/>
+      <c r="R12" s="33"/>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1520,7 +1518,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="34"/>
+      <c r="R13" s="33"/>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
@@ -1542,7 +1540,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="34"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
@@ -1564,7 +1562,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="34"/>
+      <c r="R15" s="33"/>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
@@ -1586,7 +1584,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="34"/>
+      <c r="R16" s="33"/>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
@@ -1608,7 +1606,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="34"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
@@ -1630,7 +1628,7 @@
       <c r="O18" s="14"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="34"/>
+      <c r="R18" s="33"/>
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
@@ -1652,7 +1650,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="34"/>
+      <c r="R19" s="33"/>
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
@@ -1674,7 +1672,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="34"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
@@ -1696,7 +1694,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="34"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
@@ -1718,7 +1716,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="34"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
@@ -1740,7 +1738,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="34"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
@@ -1762,7 +1760,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="34"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
@@ -1784,7 +1782,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="34"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
@@ -1806,7 +1804,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="34"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
@@ -1828,7 +1826,7 @@
       <c r="O27" s="14"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="34"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
@@ -1850,7 +1848,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="34"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
@@ -1872,7 +1870,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="34"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
@@ -1894,7 +1892,7 @@
       <c r="O30" s="14"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="34"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
@@ -1916,7 +1914,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="34"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
@@ -1938,7 +1936,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="34"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
@@ -1960,7 +1958,7 @@
       <c r="O33" s="14"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="34"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
@@ -1982,7 +1980,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="34"/>
+      <c r="R34" s="33"/>
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
@@ -2004,7 +2002,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
@@ -2026,7 +2024,7 @@
       <c r="O36" s="14"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="34"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
@@ -2048,7 +2046,7 @@
       <c r="O37" s="14"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="34"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
@@ -2070,7 +2068,7 @@
       <c r="O38" s="14"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="34"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
@@ -2092,7 +2090,7 @@
       <c r="O39" s="14"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="34"/>
+      <c r="R39" s="33"/>
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
@@ -2114,7 +2112,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="34"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
@@ -2136,7 +2134,7 @@
       <c r="O41" s="14"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="34"/>
+      <c r="R41" s="33"/>
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
@@ -2158,7 +2156,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="34"/>
+      <c r="R42" s="33"/>
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
@@ -2180,7 +2178,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="34"/>
+      <c r="R43" s="33"/>
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
@@ -2202,7 +2200,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="34"/>
+      <c r="R44" s="33"/>
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
